--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -103,12 +103,12 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -127,10 +127,10 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>dear</t>
@@ -1208,25 +1208,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6695278969957081</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L18">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1234,25 +1234,25 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6595744680851063</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1416,25 +1416,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5349544072948328</v>
+        <v>0.53125</v>
       </c>
       <c r="L26">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>153</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1442,25 +1442,25 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.53125</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="10:17">
